--- a/Spine_Projects/01_input_data/01_input_raw/diesel/Model_Data_Base_diesel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/diesel/Model_Data_Base_diesel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/diesel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BE73B5-5233-4844-9D47-73C0477F0F6B}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3FD9668-B584-4007-A63B-2E16C0BF897B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
   <si>
     <t>Unit</t>
   </si>
@@ -234,12 +234,6 @@
     <t>PEM_Electrolyzer</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Steam_Plant</t>
-  </si>
-  <si>
     <t>Electric_Steam_Boiler</t>
   </si>
   <si>
@@ -391,6 +385,9 @@
   </si>
   <si>
     <t>pl_diesel_st</t>
+  </si>
+  <si>
+    <t>steam_plant</t>
   </si>
 </sst>
 </file>
@@ -421,8 +418,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -449,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -457,8 +454,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,7 +900,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -927,6 +928,10 @@
     <col min="23" max="23" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -979,10 +984,10 @@
         <v>42</v>
       </c>
       <c r="Q1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -1012,16 +1017,16 @@
         <v>32</v>
       </c>
       <c r="AB1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>87</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>89</v>
       </c>
       <c r="AF1" t="s">
         <v>48</v>
@@ -1032,42 +1037,35 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ref="T2:T8" si="0">1/0.795</f>
-        <v>1.2578616352201257</v>
-      </c>
-      <c r="W2">
-        <v>1.29</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>80</v>
       </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1075,10 +1073,6 @@
       <c r="S3">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>1.2578616352201257</v>
-      </c>
       <c r="U3">
         <v>1.76</v>
       </c>
@@ -1086,7 +1080,7 @@
         <v>4.34</v>
       </c>
       <c r="Y3">
-        <v>1.4865951742627345E-3</v>
+        <v>1.4865950000000001E-3</v>
       </c>
       <c r="AB3">
         <v>0.02</v>
@@ -1096,70 +1090,66 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S4">
-        <v>3.6010731197896975E-3</v>
+        <v>3.529412E-3</v>
       </c>
       <c r="T4">
-        <v>3.601073119789697E-3</v>
-      </c>
-      <c r="X4">
+        <v>3.529412E-3</v>
+      </c>
+      <c r="Y4">
         <v>26.81</v>
       </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>75</v>
+      <c r="A5" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
         <v>82</v>
       </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" t="s">
-        <v>85</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>1.2578616352201257</v>
+        <v>83</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S6">
         <v>7.2437800000000002E-4</v>
@@ -1168,68 +1158,57 @@
         <v>0.99</v>
       </c>
       <c r="W6">
-        <v>0.11929223744292237</v>
+        <v>0.11929223999999999</v>
       </c>
       <c r="Y6">
-        <v>1.4865951742627345E-3</v>
+        <v>1.4865950000000001E-3</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>77</v>
+      <c r="A7" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>73</v>
+      <c r="A8" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
-      </c>
-      <c r="S8">
-        <v>17.277901743828668</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>1.2578616352201257</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>20.192799999999998</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1374,25 +1353,25 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -1425,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1433,25 +1412,25 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1481,74 +1460,50 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="Z3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>105</v>
+      <c r="A4" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="J4">
-        <v>1000</v>
-      </c>
-      <c r="K4">
-        <v>1000</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
-      <c r="N4">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -1566,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1585,9 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1639,15 +1592,15 @@
         <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1662,18 +1615,18 @@
         <v>4.147E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1682,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1725,52 +1678,52 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
@@ -1780,12 +1733,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
@@ -1795,12 +1748,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/diesel/Model_Data_Base_diesel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/diesel/Model_Data_Base_diesel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/diesel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3FD9668-B584-4007-A63B-2E16C0BF897B}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5BD0EF6-2779-4B6C-A935-F718054312E7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>value_before</t>
   </si>
   <si>
-    <t>value_start</t>
-  </si>
-  <si>
     <t>Relation_Out_In</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
   </si>
   <si>
     <t>steam_plant</t>
+  </si>
+  <si>
+    <t>Power_storage</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -455,7 +455,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -571,13 +570,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:L5" totalsRowShown="0">
-  <autoFilter ref="A1:L5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:K5" totalsRowShown="0">
+  <autoFilter ref="A1:K5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
-    <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
     <tableColumn id="2" xr3:uid="{1FB70133-79C8-41A8-BCD5-AC8AA5856E5B}" name="has_state"/>
     <tableColumn id="3" xr3:uid="{11AD2EA9-CE36-4CCE-8F89-387EFE0D8EED}" name="node_state_cap"/>
     <tableColumn id="7" xr3:uid="{FDFFF561-E931-46C6-8D90-30C5BF9CB9E9}" name="frac_state_loss"/>
@@ -939,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -954,40 +952,40 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
-        <v>42</v>
-      </c>
       <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
         <v>97</v>
-      </c>
-      <c r="R1" t="s">
-        <v>98</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -999,73 +997,73 @@
         <v>18</v>
       </c>
       <c r="V1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>48</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
         <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1090,19 +1088,19 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
         <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
       </c>
       <c r="S4">
         <v>3.529412E-3</v>
@@ -1117,39 +1115,39 @@
       <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>73</v>
+      <c r="A5" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
         <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
       </c>
       <c r="S6">
         <v>7.2437800000000002E-4</v>
@@ -1167,45 +1165,45 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>75</v>
+      <c r="A7" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
         <v>71</v>
       </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
       <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
         <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
-        <v>96</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="2"/>
@@ -1273,7 +1271,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1327,51 +1325,51 @@
         <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
-        <v>32</v>
-      </c>
       <c r="Z1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" t="s">
         <v>44</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -1404,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1412,25 +1410,25 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1460,50 +1458,50 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="Z3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>103</v>
+      <c r="A4" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
         <v>99</v>
       </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -1521,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1538,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1547,104 +1545,100 @@
     <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="D2" t="b">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>5478.6764505058327</v>
+      </c>
       <c r="F2">
-        <v>5478.6764505058327</v>
-      </c>
-      <c r="G2">
         <v>4.147E-2</v>
       </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2">
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>100</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3" t="b">
+      <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3">
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5 E2:E3" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
       <formula1>"true, false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1657,9 +1651,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F682EA3-CCEB-45E2-AC25-979810840C6C}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1668,92 +1664,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/diesel/Model_Data_Base_diesel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/diesel/Model_Data_Base_diesel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/diesel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5BD0EF6-2779-4B6C-A935-F718054312E7}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7AF320-F558-4CB2-9AFF-E5BA5BD4092F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
   <si>
     <t>Unit</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>Power_storage</t>
+  </si>
+  <si>
+    <t>initial_units_on</t>
   </si>
 </sst>
 </file>
@@ -492,9 +495,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AG8" totalsRowShown="0">
-  <autoFilter ref="A1:AG8" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AH8" totalsRowShown="0">
+  <autoFilter ref="A1:AH8" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Object_type"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input1"/>
@@ -528,6 +531,7 @@
     <tableColumn id="14" xr3:uid="{85E2E211-9879-417E-9645-71CD4680A1E8}" name="minimum_op_point_Output2"/>
     <tableColumn id="15" xr3:uid="{752A45A3-76EA-4B92-8487-BB9B0C0F14F1}" name="resolution_output" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{0AB66AD0-7EF6-4EFA-A56D-DD0B84D8E912}" name="demand" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{D11A3124-88A6-4BD3-AD01-4D76FBCEAC69}" name="initial_units_on"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -896,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -932,7 +936,7 @@
     <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,8 +1036,11 @@
       <c r="AG1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1046,7 +1053,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1086,7 +1093,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1114,7 +1121,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>72</v>
       </c>
@@ -1133,7 +1140,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -1164,7 +1171,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>74</v>
       </c>
@@ -1185,8 +1192,11 @@
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -1206,7 +1216,9 @@
         <v>95</v>
       </c>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="2"/>
+      <c r="AG8" s="2">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Spine_Projects/01_input_data/01_input_raw/diesel/Model_Data_Base_diesel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/diesel/Model_Data_Base_diesel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/diesel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7AF320-F558-4CB2-9AFF-E5BA5BD4092F}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7325245-4B28-4D9D-A364-5F836528474E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-3900" yWindow="-19815" windowWidth="24285" windowHeight="13740" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="110">
   <si>
     <t>Unit</t>
   </si>
@@ -309,9 +309,6 @@
     <t>water</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
     <t>h2</t>
   </si>
   <si>
@@ -391,6 +388,21 @@
   </si>
   <si>
     <t>initial_units_on</t>
+  </si>
+  <si>
+    <t>heat_split</t>
+  </si>
+  <si>
+    <t>Auxilliary</t>
+  </si>
+  <si>
+    <t>heat_high</t>
+  </si>
+  <si>
+    <t>internal_heat</t>
+  </si>
+  <si>
+    <t>heat_low</t>
   </si>
 </sst>
 </file>
@@ -492,6 +504,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -900,7 +916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -936,7 +952,7 @@
     <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,10 +1002,10 @@
         <v>41</v>
       </c>
       <c r="Q1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" t="s">
         <v>96</v>
-      </c>
-      <c r="R1" t="s">
-        <v>97</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -1019,16 +1035,16 @@
         <v>31</v>
       </c>
       <c r="AB1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>85</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>86</v>
       </c>
       <c r="AF1" t="s">
         <v>47</v>
@@ -1037,10 +1053,10 @@
         <v>48</v>
       </c>
       <c r="AH1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1053,7 +1069,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1067,10 +1083,10 @@
         <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1093,7 +1109,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1104,10 +1120,10 @@
         <v>75</v>
       </c>
       <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
       </c>
       <c r="S4">
         <v>3.529412E-3</v>
@@ -1121,7 +1137,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>72</v>
       </c>
@@ -1129,20 +1145,20 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1171,7 +1187,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>74</v>
       </c>
@@ -1179,16 +1195,16 @@
         <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
@@ -1196,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -1204,26 +1220,48 @@
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="2">
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="U9">
+        <v>0.4</v>
+      </c>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6 AF8" xr:uid="{A4271B4C-6C14-4C97-BA49-1AE5EE50903D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6 AF8 AI9" xr:uid="{A4271B4C-6C14-4C97-BA49-1AE5EE50903D}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1238,7 +1276,7 @@
           <x14:formula1>
             <xm:f>DropDown!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B1 B9:B1048576</xm:sqref>
+          <xm:sqref>B1 B10:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1363,13 +1401,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
@@ -1378,7 +1416,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
         <v>57</v>
@@ -1422,22 +1460,22 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
         <v>60</v>
@@ -1478,22 +1516,22 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
         <v>98</v>
       </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
@@ -1501,16 +1539,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
         <v>60</v>
@@ -1598,12 +1636,12 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -1629,10 +1667,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1726,12 +1764,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
@@ -1766,7 +1804,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/diesel/Model_Data_Base_diesel.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/diesel/Model_Data_Base_diesel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/diesel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/diesel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7325245-4B28-4D9D-A364-5F836528474E}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD7F9579-AA48-4111-8FCD-B7C7EC2A82CE}"/>
   <bookViews>
-    <workbookView xWindow="-3900" yWindow="-19815" windowWidth="24285" windowHeight="13740" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -504,10 +504,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -1288,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="V1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1588,7 +1584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
